--- a/Resources/1999/Team_PER_1999.xlsx
+++ b/Resources/1999/Team_PER_1999.xlsx
@@ -22,91 +22,91 @@
     <t>PER</t>
   </si>
   <si>
+    <t>POR</t>
+  </si>
+  <si>
     <t>NJN</t>
   </si>
   <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>GSW</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
     <t>CHH</t>
   </si>
   <si>
-    <t>SEA</t>
-  </si>
-  <si>
-    <t>VAN</t>
-  </si>
-  <si>
-    <t>GSW</t>
-  </si>
-  <si>
-    <t>CLE</t>
-  </si>
-  <si>
-    <t>LAL</t>
-  </si>
-  <si>
-    <t>ATL</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>POR</t>
-  </si>
-  <si>
-    <t>PHI</t>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>SAC</t>
   </si>
   <si>
     <t>PHO</t>
   </si>
   <si>
-    <t>MIL</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>UTA</t>
+    <t>NYK</t>
   </si>
   <si>
     <t>MIN</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>WAS</t>
-  </si>
-  <si>
-    <t>SAS</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>NYK</t>
-  </si>
-  <si>
-    <t>TOR</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>BOS</t>
-  </si>
-  <si>
-    <t>ORL</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>IND</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>43.50000000000001</v>
+        <v>15.04666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -497,7 +497,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>120.3</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -508,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>199.1</v>
+        <v>10.85384615384615</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -519,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>161.9</v>
+        <v>12.68571428571429</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -530,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>160.1</v>
+        <v>10.47058823529412</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -541,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>141.1</v>
+        <v>13.27333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -552,7 +552,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>192.7</v>
+        <v>13.85714285714286</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -563,7 +563,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>194</v>
+        <v>11.96666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -574,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>253</v>
+        <v>15.87</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -585,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>225.7</v>
+        <v>13.29333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -596,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>142.6</v>
+        <v>11.56428571428572</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -607,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>224.7</v>
+        <v>14.88235294117647</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -618,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>158.7</v>
+        <v>15.21428571428571</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -629,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>250.5</v>
+        <v>7.942857142857143</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -640,7 +640,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>168.5</v>
+        <v>12.03571428571429</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -651,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>144.2</v>
+        <v>12.72142857142857</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -662,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>158.6</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -673,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>179.5</v>
+        <v>14.82307692307692</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -684,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>213</v>
+        <v>12.31538461538462</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -695,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>178.1</v>
+        <v>12.51428571428571</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -706,7 +706,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>185.3999999999999</v>
+        <v>10.57333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -717,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>114.6</v>
+        <v>10.96923076923077</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -728,7 +728,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>177.6</v>
+        <v>10.025</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>185.4</v>
+        <v>11.89230769230769</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -750,7 +750,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>199.3999999999999</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -761,7 +761,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>154.6</v>
+        <v>13.24285714285714</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -772,7 +772,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>111.2</v>
+        <v>13.21764705882353</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -783,7 +783,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>178</v>
+        <v>14.26153846153846</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -794,7 +794,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>175.2</v>
+        <v>11.09230769230769</v>
       </c>
     </row>
   </sheetData>
